--- a/文档/项目组内文档/08.项目总结报告.xlsx
+++ b/文档/项目组内文档/08.项目总结报告.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\neuedu\99华南区VSS\01.华南区资源库\06.实训项目\FY17华南区实训项目管理流程\02.实施项目过程文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="7770" yWindow="-390" windowWidth="10635" windowHeight="8820" tabRatio="728" activeTab="4"/>
   </bookViews>
@@ -26,50 +21,50 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_ML1">[3]分类数据!$C$3</definedName>
+    <definedName name="_ML10">[3]分类数据!$C$12</definedName>
+    <definedName name="_ML2">[3]分类数据!$C$4</definedName>
+    <definedName name="_ML3">[3]分类数据!$C$5</definedName>
+    <definedName name="_ML4">[3]分类数据!$C$6</definedName>
+    <definedName name="_ML5">[3]分类数据!$C$7</definedName>
+    <definedName name="_ML6">[3]分类数据!$C$8</definedName>
+    <definedName name="_ML7">[3]分类数据!$C$9</definedName>
+    <definedName name="_ML8">[3]分类数据!$C$10</definedName>
+    <definedName name="_ML9">[3]分类数据!$C$11</definedName>
     <definedName name="CMRight">#REF!</definedName>
-    <definedName name="e.total">[4]同行评审!$M$8</definedName>
-    <definedName name="effort.ta">[3]引言!#REF!</definedName>
+    <definedName name="e.total">[1]同行评审!$M$8</definedName>
+    <definedName name="effort.ta">[2]引言!#REF!</definedName>
     <definedName name="MeasureKind">#REF!</definedName>
     <definedName name="MilestoneName">#REF!</definedName>
-    <definedName name="_ML1">[1]分类数据!$C$3</definedName>
-    <definedName name="_ML10">[1]分类数据!$C$12</definedName>
-    <definedName name="_ML2">[1]分类数据!$C$4</definedName>
-    <definedName name="_ML3">[1]分类数据!$C$5</definedName>
-    <definedName name="_ML4">[1]分类数据!$C$6</definedName>
-    <definedName name="_ML5">[1]分类数据!$C$7</definedName>
-    <definedName name="_ML6">[1]分类数据!$C$8</definedName>
-    <definedName name="_ML7">[1]分类数据!$C$9</definedName>
-    <definedName name="_ML8">[1]分类数据!$C$10</definedName>
-    <definedName name="_ML9">[1]分类数据!$C$11</definedName>
     <definedName name="ModuleName">#REF!</definedName>
     <definedName name="ProductKind">#REF!</definedName>
     <definedName name="ReviewKind">#REF!</definedName>
-    <definedName name="size.ta">[3]引言!#REF!</definedName>
+    <definedName name="size.ta">[2]引言!#REF!</definedName>
     <definedName name="StaffName">#REF!</definedName>
     <definedName name="StatOKNG">#REF!</definedName>
     <definedName name="StatOpenClose">#REF!</definedName>
     <definedName name="StatYesNo">#REF!</definedName>
-    <definedName name="t.all">[4]同行评审!#REF!</definedName>
-    <definedName name="t.at">[4]同行评审!#REF!</definedName>
-    <definedName name="t.dd">[4]同行评审!#REF!</definedName>
-    <definedName name="t.it">[4]同行评审!#REF!</definedName>
-    <definedName name="t.pd">[4]同行评审!#REF!</definedName>
-    <definedName name="t.pr">[4]同行评审!#REF!</definedName>
-    <definedName name="t.ra">[4]同行评审!#REF!</definedName>
-    <definedName name="t.sd">[4]同行评审!#REF!</definedName>
-    <definedName name="t.st1">[4]同行评审!#REF!</definedName>
-    <definedName name="t.st2">[4]同行评审!#REF!</definedName>
-    <definedName name="t.st3">[4]同行评审!#REF!</definedName>
-    <definedName name="t.ut">[4]同行评审!#REF!</definedName>
+    <definedName name="t.all">[1]同行评审!#REF!</definedName>
+    <definedName name="t.at">[1]同行评审!#REF!</definedName>
+    <definedName name="t.dd">[1]同行评审!#REF!</definedName>
+    <definedName name="t.it">[1]同行评审!#REF!</definedName>
+    <definedName name="t.pd">[1]同行评审!#REF!</definedName>
+    <definedName name="t.pr">[1]同行评审!#REF!</definedName>
+    <definedName name="t.ra">[1]同行评审!#REF!</definedName>
+    <definedName name="t.sd">[1]同行评审!#REF!</definedName>
+    <definedName name="t.st1">[1]同行评审!#REF!</definedName>
+    <definedName name="t.st2">[1]同行评审!#REF!</definedName>
+    <definedName name="t.st3">[1]同行评审!#REF!</definedName>
+    <definedName name="t.ut">[1]同行评审!#REF!</definedName>
     <definedName name="Total.type">#REF!</definedName>
-    <definedName name="tp.ra">[4]同行评审!#REF!</definedName>
-    <definedName name="WORKDAYS">'[5]1.概述'!$H$4</definedName>
-    <definedName name="担当">[2]分类数据!$D$3</definedName>
-    <definedName name="工作产品">[2]分类数据!$E$3:$E$15</definedName>
-    <definedName name="阶段">[2]分类数据!$B$3:$B$14</definedName>
-    <definedName name="模块">[2]分类数据!$C$3</definedName>
-    <definedName name="评审类别">[2]分类数据!$F$3:$F$5</definedName>
-    <definedName name="状态">[2]分类数据!$G$3:$G$4</definedName>
+    <definedName name="tp.ra">[1]同行评审!#REF!</definedName>
+    <definedName name="WORKDAYS">'[4]1.概述'!$H$4</definedName>
+    <definedName name="担当">[5]分类数据!$D$3</definedName>
+    <definedName name="工作产品">[5]分类数据!$E$3:$E$15</definedName>
+    <definedName name="阶段">[5]分类数据!$B$3:$B$14</definedName>
+    <definedName name="模块">[5]分类数据!$C$3</definedName>
+    <definedName name="评审类别">[5]分类数据!$F$3:$F$5</definedName>
+    <definedName name="状态">[5]分类数据!$G$3:$G$4</definedName>
   </definedNames>
   <calcPr calcId="92512"/>
 </workbook>
@@ -82,7 +77,7 @@
     <author>wsw</author>
   </authors>
   <commentList>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,6 +85,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ibm:</t>
@@ -99,6 +95,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -106,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="0" shapeId="0">
+    <comment ref="D27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,6 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ibm:</t>
@@ -123,6 +121,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -130,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,6 +137,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>ibm:</t>
@@ -147,6 +147,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -154,13 +155,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="1" shapeId="0">
+    <comment ref="B37" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>质量总结：
@@ -168,13 +170,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="1" shapeId="0">
+    <comment ref="B39" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>规模总结：
@@ -182,13 +185,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="1" shapeId="0">
+    <comment ref="B41" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>工作量总结：
@@ -201,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>密级：秘密</t>
   </si>
@@ -378,6 +382,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，每个</t>
@@ -394,6 +399,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>的变更内容写一行。</t>
@@ -437,6 +443,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>需求</t>
@@ -465,6 +472,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>进度</t>
@@ -489,6 +497,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>质量</t>
@@ -504,6 +513,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>规模</t>
@@ -519,6 +529,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>工作量</t>
@@ -534,6 +545,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>资源</t>
@@ -655,17 +667,117 @@
     <t>文档编号：D0000-PPA-项目编号-PSR-年份-顺序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>图书信息管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interesting14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴若楠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗智聪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目组长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邱晓燕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅凯文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达成</t>
+  </si>
+  <si>
+    <t>3人11天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3人14天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对图书信息进行管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模不大，但内容完善</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>适中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量过关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度适中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>资源丰富，组件参考</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Frutiger LT 55 Roman"/>
+        <family val="2"/>
+      </rPr>
+      <t>element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>官网</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="186" formatCode="mmm"/>
-    <numFmt numFmtId="187" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="190" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="191" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="192" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="mmm"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="50">
     <font>
@@ -676,11 +788,13 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -696,11 +810,13 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -753,6 +869,7 @@
       <b/>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -765,6 +882,7 @@
     <font>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -776,18 +894,21 @@
     <font>
       <sz val="10.5"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -811,11 +932,13 @@
       <b/>
       <sz val="15"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -832,11 +955,13 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -853,6 +978,7 @@
     <font>
       <sz val="36"/>
       <name val="黑体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -924,6 +1050,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -931,12 +1058,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1055,7 +1184,7 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -1083,15 +1212,15 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="191" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="192" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1346,36 +1475,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1385,37 +1484,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1430,8 +1502,26 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1442,14 +1532,74 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="46" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="25">
@@ -19867,6 +20017,74 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="发行控制"/>
+      <sheetName val="封面"/>
+      <sheetName val="目录"/>
+      <sheetName val="基本信息"/>
+      <sheetName val="项目目标"/>
+      <sheetName val="质量"/>
+      <sheetName val="同行评审"/>
+      <sheetName val="测试过程"/>
+      <sheetName val="工作量"/>
+      <sheetName val="进度"/>
+      <sheetName val="需求管理"/>
+      <sheetName val="风险管理"/>
+      <sheetName val="优秀实践"/>
+      <sheetName val="优秀产品"/>
+      <sheetName val="附录1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="8">
+          <cell r="M8">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="引言"/>
+      <sheetName val="生产率"/>
+      <sheetName val="质量"/>
+      <sheetName val="工作量"/>
+      <sheetName val="进度"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="发行控制"/>
       <sheetName val="填写及缩略语说明"/>
       <sheetName val="Cover"/>
       <sheetName val="Project Status"/>
@@ -19903,7 +20121,40 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="发行控制"/>
+      <sheetName val="封面"/>
+      <sheetName val="1.概述"/>
+      <sheetName val="2.质量"/>
+      <sheetName val="3.工作量"/>
+      <sheetName val="4.进度"/>
+      <sheetName val="3.成本"/>
+      <sheetName val="4.工期"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="H4">
+            <v>25</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -20053,107 +20304,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="引言"/>
-      <sheetName val="生产率"/>
-      <sheetName val="质量"/>
-      <sheetName val="工作量"/>
-      <sheetName val="进度"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="发行控制"/>
-      <sheetName val="封面"/>
-      <sheetName val="目录"/>
-      <sheetName val="基本信息"/>
-      <sheetName val="项目目标"/>
-      <sheetName val="质量"/>
-      <sheetName val="同行评审"/>
-      <sheetName val="测试过程"/>
-      <sheetName val="工作量"/>
-      <sheetName val="进度"/>
-      <sheetName val="需求管理"/>
-      <sheetName val="风险管理"/>
-      <sheetName val="优秀实践"/>
-      <sheetName val="优秀产品"/>
-      <sheetName val="附录1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="8">
-          <cell r="M8">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="发行控制"/>
-      <sheetName val="封面"/>
-      <sheetName val="1.概述"/>
-      <sheetName val="2.质量"/>
-      <sheetName val="3.工作量"/>
-      <sheetName val="4.进度"/>
-      <sheetName val="3.成本"/>
-      <sheetName val="4.工期"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="H4">
-            <v>25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -20197,7 +20347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -20232,7 +20382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -20409,7 +20559,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -21671,8 +21821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:I14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1"/>
@@ -21691,82 +21841,94 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.15" customHeight="1"/>
     <row r="2" spans="2:9" ht="33.6" customHeight="1">
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
     </row>
     <row r="3" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="122" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="102" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="112"/>
+      <c r="F4" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="102" t="s">
+      <c r="C5" s="111"/>
+      <c r="D5" s="123" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="112"/>
+      <c r="F5" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="102"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="102" t="s">
+      <c r="C6" s="111"/>
+      <c r="D6" s="125">
+        <v>42948</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="F6" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="126">
+        <v>42958</v>
+      </c>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="108"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="8" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B8" s="80" t="s">
@@ -21775,459 +21937,529 @@
       <c r="C8" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="106"/>
-      <c r="F8" s="107" t="s">
+      <c r="E8" s="118"/>
+      <c r="F8" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="108"/>
-      <c r="H8" s="96" t="s">
+      <c r="G8" s="116"/>
+      <c r="H8" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
+      <c r="B9" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="127">
+        <v>42948</v>
+      </c>
+      <c r="E9" s="92"/>
+      <c r="F9" s="128">
+        <v>42958</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="96"/>
     </row>
     <row r="10" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
+      <c r="B10" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="127">
+        <v>42948</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="128">
+        <v>42958</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="96"/>
     </row>
     <row r="11" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
+      <c r="B11" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="127">
+        <v>42948</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="128">
+        <v>42958</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="96"/>
     </row>
     <row r="12" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
     </row>
     <row r="14" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
     </row>
     <row r="15" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B15" s="76"/>
       <c r="C15" s="76"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
     </row>
     <row r="16" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116" t="s">
+      <c r="C16" s="110"/>
+      <c r="D16" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
     </row>
     <row r="17" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B17" s="98"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99"/>
+      <c r="B17" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="89"/>
     </row>
     <row r="18" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="99"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="89"/>
     </row>
     <row r="19" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B19" s="98"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="99"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="89"/>
     </row>
     <row r="20" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B20" s="98"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="99"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="89"/>
     </row>
     <row r="21" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B21" s="98"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="99"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="89"/>
     </row>
     <row r="22" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B22" s="117" t="s">
+      <c r="B22" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="118"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" spans="2:9" s="81" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B23" s="82">
         <v>1</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="94"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" spans="2:9" s="81" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B24" s="82">
         <v>2</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="94"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
     </row>
     <row r="25" spans="2:9" s="81" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="B25" s="82">
         <v>3</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
     </row>
     <row r="26" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="122" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="95"/>
-      <c r="H26" s="95"/>
-      <c r="I26" s="95"/>
+      <c r="C26" s="122"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
     </row>
     <row r="27" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="97"/>
-      <c r="D27" s="96" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="97"/>
-      <c r="F27" s="96" t="s">
+      <c r="E27" s="120"/>
+      <c r="F27" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="96" t="s">
+      <c r="G27" s="120"/>
+      <c r="H27" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="97"/>
+      <c r="I27" s="120"/>
     </row>
     <row r="28" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="90"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="91"/>
+      <c r="C28" s="98"/>
+      <c r="D28" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="98"/>
+      <c r="F28" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="98"/>
     </row>
     <row r="29" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="91"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="91"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="98"/>
     </row>
     <row r="31" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="91"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="2:9" ht="16.899999999999999" customHeight="1">
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
     </row>
     <row r="33" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B33" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="89" t="s">
+      <c r="C33" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="99"/>
+      <c r="F33" s="99"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="99"/>
+      <c r="I33" s="99"/>
     </row>
     <row r="34" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B34" s="77"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
+      <c r="C34" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
     </row>
     <row r="35" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B35" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="89" t="s">
+      <c r="C35" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
     </row>
     <row r="36" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B36" s="77"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
+      <c r="C36" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
     </row>
     <row r="37" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B37" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
     </row>
     <row r="38" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B38" s="77"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
+      <c r="C38" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
     </row>
     <row r="39" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B39" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
     </row>
     <row r="40" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B40" s="79"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
+      <c r="C40" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
     </row>
     <row r="41" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B41" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
     </row>
     <row r="42" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B42" s="79"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
+      <c r="C42" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
     </row>
     <row r="43" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B43" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
     </row>
     <row r="44" spans="2:9" ht="16.899999999999999" customHeight="1">
       <c r="B44" s="79"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="C44" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="C36:I36"/>
+    <mergeCell ref="C37:I37"/>
+    <mergeCell ref="C38:I38"/>
+    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="C40:I40"/>
+    <mergeCell ref="C41:I41"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="C23:I23"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="C24:I24"/>
     <mergeCell ref="C25:I25"/>
@@ -22244,38 +22476,12 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:I16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C23:I23"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C35:I35"/>
+    <mergeCell ref="B32:I32"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="F31:G31"/>
@@ -22286,18 +22492,26 @@
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="C40:I40"/>
-    <mergeCell ref="C41:I41"/>
-    <mergeCell ref="C42:I42"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C37:I37"/>
-    <mergeCell ref="C38:I38"/>
-    <mergeCell ref="C39:I39"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="D17:I17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="6">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"严重失控,失控,基本受控,受控"</formula1>
     </dataValidation>
